--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481114.484359902</v>
+        <v>3478862.404648695</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7854648.981454257</v>
+        <v>7854648.981454256</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.792004777350766</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>60.03388914270838</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>81.28049788357376</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213227</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6473952970549</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.747011156955555</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>148.434892503107</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88.89700561060545</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>158.8661859444883</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722601</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428082</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>46.29306638367343</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.5271979141359</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.9927435506633</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>55.30088041042189</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.4849283993767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>193.7763380130611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>143.7703193541471</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.65602513333643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>104.1233804225859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>175.0948681033051</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033366</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2364.103749387412</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1990.637991126332</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1600.49865915052</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.4698357812244</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>462.5336528533176</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>462.5336528533176</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>462.5336528533176</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812244</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>631.4698357812244</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.4698357812244</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140706</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.236214140706</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>936.9705155339559</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>936.9705155339559</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2724.281921707741</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>2715.446556902735</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>2715.446556902735</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>2715.446556902735</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>3133.919937435998</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>3133.919937435998</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>3133.919937435998</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>3133.919937435998</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>3133.919937435998</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>2905.930386537981</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>2905.930386537981</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379417</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W10" t="n">
-        <v>216.6287558445192</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="X10" t="n">
-        <v>216.6287558445192</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>156.3070715944112</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452622</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452622</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718139</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.584050252739</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.584050252739</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,16 +5431,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921487</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921487</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187003</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
         <v>1767.889897446606</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>948.5505208511906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.5505208511906</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7494,16 +7494,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7903292978459</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2020.199042352916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1731.123815697113</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1476.439327491226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.022157454266</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.022157454266</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.2295783107356</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.36835372228835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.30478226780144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>91.59190980143151</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>93.31459260779047</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.09972495271805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.845153664065208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>42.31058222398332</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>42.31058222398315</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>5.339677442988552e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.793268576</v>
+        <v>-770811.7932685765</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590166</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="E6" t="n">
-        <v>305248.9170401263</v>
+        <v>305214.17911469</v>
       </c>
       <c r="F6" t="n">
-        <v>630661.3788474805</v>
+        <v>630626.6409220453</v>
       </c>
       <c r="G6" t="n">
-        <v>630661.3788474809</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.3788474805</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.640922045</v>
       </c>
       <c r="J6" t="n">
-        <v>413130.1764502033</v>
+        <v>413095.4385247679</v>
       </c>
       <c r="K6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="L6" t="n">
-        <v>630661.3788474809</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="M6" t="n">
-        <v>545606.3509119693</v>
+        <v>545571.6129865331</v>
       </c>
       <c r="N6" t="n">
-        <v>630661.3788474809</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="O6" t="n">
-        <v>630661.3788474808</v>
+        <v>630626.640922045</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220451</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>349.8910368433322</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>289.2070795747046</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>64.14055013935749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.4083277101192</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>292.2286504446565</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>158.4998099416723</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.33413282833487</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.9210818608648</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.93497457133185</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>127.6568123921027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,13 +28090,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.667307573435684e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.86741080007012e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.190220890814</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.482598761492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>360.3952288121465</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>728.6709493241814</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>270.9716933356906</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,19 +33977,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724565</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.348781916455</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394736</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5537898377875</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>597.3292372408481</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>132.4173135558164</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>79.32561221529411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>159.048271228012</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
